--- a/tables/xls/it/28_Comunicazioni radio.xlsx
+++ b/tables/xls/it/28_Comunicazioni radio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Data/ora</t>
   </si>
@@ -27,10 +27,13 @@
     <t>Num. Messaggio</t>
   </si>
   <si>
-    <t>Da</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>Chiamante</t>
+  </si>
+  <si>
+    <t>Chiamato</t>
+  </si>
+  <si>
+    <t>Messaggio</t>
   </si>
   <si>
     <t>Necessaria risposta</t>
@@ -39,9 +42,6 @@
     <t>Priorità</t>
   </si>
   <si>
-    <t>Messaggio/Evento</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -51,127 +51,124 @@
     <t>Nome (abbrev.)</t>
   </si>
   <si>
-    <t>Num. Mess</t>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Elenco di valori (separati da virgola)</t>
+  </si>
+  <si>
+    <t>Dim. massima</t>
+  </si>
+  <si>
+    <t>Obbligatorio</t>
+  </si>
+  <si>
+    <t>Valore predefinito</t>
+  </si>
+  <si>
+    <t>Sola lettura</t>
+  </si>
+  <si>
+    <t>Visibile</t>
+  </si>
+  <si>
+    <t>Forza</t>
+  </si>
+  <si>
+    <t>Valore unico</t>
+  </si>
+  <si>
+    <t>Opzioni campo</t>
+  </si>
+  <si>
+    <t>Scheda dati per suggerimento</t>
+  </si>
+  <si>
+    <t>Campo suggerimento</t>
+  </si>
+  <si>
+    <t>Testo aiuto</t>
+  </si>
+  <si>
+    <t>Configurazione Scheda Dati</t>
+  </si>
+  <si>
+    <t>Nome Scheda Dati</t>
+  </si>
+  <si>
+    <t>Descrizione Scheda Dati</t>
+  </si>
+  <si>
+    <t>Ordina scheda per</t>
+  </si>
+  <si>
+    <t>Direzione ordinamento</t>
+  </si>
+  <si>
+    <t>Consenti modifiche</t>
+  </si>
+  <si>
+    <t>Consenti inserimenti</t>
+  </si>
+  <si>
+    <t>Consenti cancellazioni</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Data e ora</t>
+  </si>
+  <si>
+    <t>Sì</t>
+  </si>
+  <si>
+    <t>adesso</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Testo</t>
+  </si>
+  <si>
+    <t>${cognome utente} ${nome utente}</t>
+  </si>
+  <si>
+    <t>Num.</t>
+  </si>
+  <si>
+    <t>${codice riga}</t>
+  </si>
+  <si>
+    <t>Testo Lungo</t>
   </si>
   <si>
     <t>Nec. risp.</t>
   </si>
   <si>
-    <t>Descrizione</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Data e ora</t>
-  </si>
-  <si>
-    <t>Testo</t>
-  </si>
-  <si>
     <t>Testo - Elenco di valori</t>
   </si>
   <si>
-    <t>Testo Lungo</t>
-  </si>
-  <si>
-    <t>Elenco di valori (separati da virgola)</t>
-  </si>
-  <si>
-    <t>No,Sì</t>
+    <t>n.d.,No,Sì</t>
   </si>
   <si>
     <t>n.d.,ALTA,MEDIA,BASSA</t>
   </si>
   <si>
-    <t>Dim. massima</t>
-  </si>
-  <si>
-    <t>Obbligatorio</t>
-  </si>
-  <si>
-    <t>Sì</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Valore predefinito</t>
-  </si>
-  <si>
-    <t>adesso</t>
-  </si>
-  <si>
-    <t>${cognome utente} ${nome utente}</t>
-  </si>
-  <si>
-    <t>${codice riga}</t>
-  </si>
-  <si>
-    <t>Sola lettura</t>
-  </si>
-  <si>
-    <t>Visibile</t>
-  </si>
-  <si>
-    <t>Forza</t>
-  </si>
-  <si>
-    <t>Valore unico</t>
-  </si>
-  <si>
-    <t>Opzioni campo</t>
-  </si>
-  <si>
-    <t>Scheda dati per suggerimento</t>
-  </si>
-  <si>
-    <t>Campo suggerimento</t>
-  </si>
-  <si>
-    <t>Testo aiuto</t>
-  </si>
-  <si>
-    <t>Configurazione Scheda Dati</t>
+    <t>COMUNICAZIONI RADIO</t>
+  </si>
+  <si>
+    <t>Comunicazioni radio</t>
+  </si>
+  <si>
+    <t>Decrescente</t>
+  </si>
+  <si>
+    <t>COMUNICAZIONI</t>
   </si>
   <si>
     <t>Elenco segnalibri</t>
-  </si>
-  <si>
-    <t>Nome Scheda Dati</t>
-  </si>
-  <si>
-    <t>COMUNICAZIONI RADIO</t>
-  </si>
-  <si>
-    <t>Descrizione Scheda Dati</t>
-  </si>
-  <si>
-    <t>Comunicazioni radio</t>
-  </si>
-  <si>
-    <t>Ordina scheda per</t>
-  </si>
-  <si>
-    <t>Direzione ordinamento</t>
-  </si>
-  <si>
-    <t>Decrescente</t>
-  </si>
-  <si>
-    <t>Consenti modifiche</t>
-  </si>
-  <si>
-    <t>Consenti inserimenti</t>
-  </si>
-  <si>
-    <t>Consenti cancellazioni</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>COMUNICAZIONI</t>
   </si>
 </sst>
 </file>
@@ -195,10 +192,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -209,7 +203,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,7 +500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -517,6 +511,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="5" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -551,7 +556,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -560,11 +565,12 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -631,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>22</v>
@@ -648,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -657,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -671,57 +677,57 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
+      <c r="G5"/>
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5"/>
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>255</v>
@@ -739,13 +745,13 @@
         <v>255</v>
       </c>
       <c r="G6">
-        <v>255</v>
+        <v>1000</v>
       </c>
       <c r="H6">
         <v>255</v>
       </c>
       <c r="I6">
-        <v>1000</v>
+        <v>255</v>
       </c>
       <c r="J6">
         <v>1000</v>
@@ -753,125 +759,125 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -885,39 +891,39 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -931,7 +937,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -945,7 +951,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -959,7 +965,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -973,31 +979,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1005,49 +1011,49 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1056,5 +1062,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/tables/xls/it/28_Comunicazioni radio.xlsx
+++ b/tables/xls/it/28_Comunicazioni radio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Data/ora</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Messaggio</t>
+  </si>
+  <si>
+    <t>Servizio</t>
   </si>
   <si>
     <t>Necessaria risposta</t>
@@ -196,15 +199,19 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +511,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,18 +519,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="5.856" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,9 +559,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -574,7 +584,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +592,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -610,10 +620,13 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -640,12 +653,15 @@
         <v>8</v>
       </c>
       <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -654,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -666,50 +682,56 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -717,17 +739,18 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
+      <c r="H5"/>
       <c r="I5" t="s">
         <v>45</v>
       </c>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>255</v>
@@ -754,130 +777,141 @@
         <v>255</v>
       </c>
       <c r="J6">
+        <v>255</v>
+      </c>
+      <c r="K6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -888,42 +922,46 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -934,10 +972,11 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -948,10 +987,11 @@
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -962,10 +1002,11 @@
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -976,81 +1017,81 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
